--- a/medicine/Mort/Bateau_de_Tune/Bateau_de_Tune.xlsx
+++ b/medicine/Mort/Bateau_de_Tune/Bateau_de_Tune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bateau de Tune est un bateau viking de type karv ayant été découvert en 1867 près de la ferme Haugen, sur l'île fluviale de Rolvsøy dans le Østfold, Norvège. Le bateau a été construit aux environs de 900, et est fait principalement de planches de chêne. Il a été trouvé dans un monticule funéraire appelé Båthaugen (le monticule bateau) par l'archéologue Oluf Rygh en 1867.
